--- a/src/main/resources/template_multi.xlsx
+++ b/src/main/resources/template_multi.xlsx
@@ -11,6 +11,16 @@
     <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" name="cell1" vbProcedure="false">Sheet0!$A$6:$A$7</definedName>
+    <definedName function="false" hidden="false" name="cell10" vbProcedure="false">Sheet0!$J$6</definedName>
+    <definedName function="false" hidden="false" name="cell2" vbProcedure="false">Sheet0!$B$6:$D$7</definedName>
+    <definedName function="false" hidden="false" name="cell3" vbProcedure="false">Sheet0!$E$6</definedName>
+    <definedName function="false" hidden="false" name="cell4" vbProcedure="false">Sheet0!$E$7</definedName>
+    <definedName function="false" hidden="false" name="cell5" vbProcedure="false">Sheet0!$F$6:$G$6</definedName>
+    <definedName function="false" hidden="false" name="cell6" vbProcedure="false">Sheet0!$F$7</definedName>
+    <definedName function="false" hidden="false" name="cell7" vbProcedure="false">Sheet0!$G$7</definedName>
+    <definedName function="false" hidden="false" name="cell8" vbProcedure="false">Sheet0!$H$6</definedName>
+    <definedName function="false" hidden="false" name="cell9" vbProcedure="false">Sheet0!$I$6</definedName>
     <definedName function="false" hidden="false" name="date" vbProcedure="false">Sheet0!$A$6</definedName>
     <definedName function="false" hidden="false" name="details" vbProcedure="false">Sheet0!$6:$7</definedName>
     <definedName function="false" hidden="false" name="name" vbProcedure="false">Sheet0!$E$1:$T$2</definedName>
@@ -27,9 +37,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
   <si>
     <t xml:space="preserve">週報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
@@ -159,9 +181,12 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="319">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,6 +245,1222 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -299,21 +1540,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="1" width="7.68"/>
+    <col min="1" max="8" customWidth="true" hidden="false" style="1" width="7.68" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="2" width="7.68" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="26" customWidth="true" hidden="false" style="1" width="7.68" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,7 +1564,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="n">
         <f aca="true">TODAY()</f>
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -391,11 +1630,11 @@
       <c r="T5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="n">
-        <v>2</v>
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -454,100 +1693,492 @@
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13" t="n">
+    <row r="8">
+      <c r="A8" s="281"/>
+      <c r="B8" s="282"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="285" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="286" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="287"/>
+      <c r="H8" s="288"/>
+      <c r="I8" s="289"/>
+      <c r="J8" s="290"/>
+      <c r="K8"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="292"/>
+      <c r="N8" s="293"/>
+      <c r="O8" s="294"/>
+      <c r="P8" s="295"/>
+      <c r="Q8" s="296"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="299"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="300"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="304" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="305" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="306" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="307"/>
+      <c r="I9" s="308"/>
+      <c r="J9" s="309"/>
+      <c r="K9"/>
+      <c r="L9" s="310"/>
+      <c r="M9" s="311"/>
+      <c r="N9" s="312"/>
+      <c r="O9" s="313"/>
+      <c r="P9" s="314"/>
+      <c r="Q9" s="315"/>
+      <c r="R9" s="316"/>
+      <c r="S9" s="317"/>
+      <c r="T9" s="318"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="243"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="252"/>
+      <c r="K10"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="260"/>
+      <c r="T10" s="261"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="262"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="264"/>
+      <c r="D11" s="265"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="267"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="271"/>
+      <c r="K11"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="273"/>
+      <c r="N11" s="274"/>
+      <c r="O11" s="275"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="277"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="280"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="205"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="209" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="210" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="211"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
+      <c r="K12"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="216"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="223"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="224"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="229" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="230" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="231"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="233"/>
+      <c r="K13"/>
+      <c r="L13" s="234"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="236"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="238"/>
+      <c r="Q13" s="239"/>
+      <c r="R13" s="240"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="242"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="167"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
+      <c r="K14"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="182"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="185"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="186"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="195"/>
+      <c r="K15"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="197"/>
+      <c r="N15" s="198"/>
+      <c r="O15" s="199"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="202"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="204"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="129"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="135"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="138"/>
+      <c r="K16"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="146"/>
+      <c r="T16" s="147"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="148"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
+      <c r="K17"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="166"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="109"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119"/>
+      <c r="K19"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="126"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="128"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="71"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="90"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="33"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="52"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="n">
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13" t="n">
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13" t="n">
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="T11" s="13"/>
+      <c r="T27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="847">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="A6:A7"/>
@@ -563,6 +2194,110 @@
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="H9:J9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
